--- a/data/trans_orig/POLIPATOLOGIA-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A926D5E0-E0D0-4B0C-9A1A-DF6E775237FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D348AFE5-325B-4BBE-9923-4F859E1F822B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{09ED483A-F977-43EC-BD98-18F3C0D61472}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E21BC55-F548-4036-960D-F2B24B26F647}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
   <si>
     <t>Población con dos o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>18,35%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
   </si>
   <si>
     <t>25,84%</t>
   </si>
   <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
   </si>
   <si>
     <t>22,01%</t>
   </si>
   <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>81,65%</t>
   </si>
   <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>74,16%</t>
   </si>
   <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
   </si>
   <si>
     <t>77,99%</t>
   </si>
   <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>18,09%</t>
   </si>
   <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
   </si>
   <si>
     <t>40,43%</t>
   </si>
   <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
   </si>
   <si>
     <t>29,38%</t>
   </si>
   <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
   </si>
   <si>
     <t>81,91%</t>
   </si>
   <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
   </si>
   <si>
     <t>59,57%</t>
   </si>
   <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
   </si>
   <si>
     <t>70,62%</t>
   </si>
   <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,1735 +197,1723 @@
     <t>16,5%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
   </si>
   <si>
     <t>30,72%</t>
   </si>
   <si>
-    <t>25,97%</t>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
   </si>
   <si>
     <t>35,62%</t>
   </si>
   <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
   </si>
   <si>
     <t>64,38%</t>
   </si>
   <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
   </si>
   <si>
     <t>35,49%</t>
   </si>
   <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
   </si>
   <si>
     <t>64,51%</t>
   </si>
   <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
   </si>
   <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
   </si>
   <si>
     <t>69,43%</t>
   </si>
   <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
   </si>
   <si>
     <t>39,06%</t>
   </si>
   <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
     <t>44,47%</t>
   </si>
   <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
   </si>
   <si>
     <t>25,59%</t>
   </si>
   <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
   </si>
   <si>
     <t>37,48%</t>
   </si>
   <si>
-    <t>40,49%</t>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
   </si>
   <si>
     <t>31,56%</t>
   </si>
   <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
   </si>
   <si>
     <t>74,41%</t>
   </si>
   <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
   </si>
   <si>
     <t>62,52%</t>
   </si>
   <si>
-    <t>59,51%</t>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
   </si>
   <si>
     <t>68,44%</t>
   </si>
   <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
   </si>
   <si>
     <t>32,85%</t>
   </si>
   <si>
-    <t>34,72%</t>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
   </si>
   <si>
     <t>47,72%</t>
   </si>
   <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
   </si>
   <si>
     <t>40,75%</t>
   </si>
   <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
+    <t>44,2%</t>
   </si>
   <si>
     <t>67,15%</t>
   </si>
   <si>
-    <t>65,28%</t>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
   </si>
   <si>
     <t>52,28%</t>
   </si>
   <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
   </si>
   <si>
     <t>59,25%</t>
   </si>
   <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
+    <t>55,8%</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47197EF4-F8B4-4E18-B19E-49A408B858D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E48CEAC-E091-427A-83EE-F8C62DADE3FE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3704,10 +3692,10 @@
         <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1101</v>
@@ -3716,13 +3704,13 @@
         <v>1132361</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1763</v>
@@ -3731,13 +3719,13 @@
         <v>1780344</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3740,13 @@
         <v>2628561</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2196</v>
@@ -3767,28 +3755,28 @@
         <v>2246837</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>4748</v>
       </c>
       <c r="N29" s="7">
-        <v>4875396</v>
+        <v>4875397</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,7 +3818,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3844,7 +3832,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3868,7 +3856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC09D2E-70CA-49F7-9AC8-91E755B7F61C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44482B24-1E2F-4A30-82B4-160E0D3CFACA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3885,7 +3873,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3990,39 +3978,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,39 +4023,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,39 +4068,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4117,13 @@
         <v>105314</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>166</v>
@@ -4144,13 +4132,13 @@
         <v>181939</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>255</v>
@@ -4159,13 +4147,13 @@
         <v>287253</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4168,13 @@
         <v>400213</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H8" s="7">
         <v>314</v>
@@ -4195,13 +4183,13 @@
         <v>341826</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>697</v>
@@ -4210,10 +4198,10 @@
         <v>742039</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>200</v>
@@ -4314,13 +4302,13 @@
         <v>214786</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4323,13 @@
         <v>233379</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>202</v>
@@ -4350,13 +4338,13 @@
         <v>216901</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>436</v>
@@ -4365,13 +4353,13 @@
         <v>450280</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4427,13 @@
         <v>156229</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>273</v>
@@ -4454,13 +4442,13 @@
         <v>290682</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>418</v>
@@ -4469,13 +4457,13 @@
         <v>446911</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4478,13 @@
         <v>512491</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>354</v>
@@ -4505,13 +4493,13 @@
         <v>385514</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>835</v>
@@ -4520,13 +4508,13 @@
         <v>898005</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4582,13 @@
         <v>59701</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>124</v>
@@ -4609,13 +4597,13 @@
         <v>130021</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -4624,13 +4612,13 @@
         <v>189722</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4633,13 @@
         <v>152917</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>88</v>
@@ -4660,13 +4648,13 @@
         <v>89570</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>230</v>
@@ -4675,13 +4663,13 @@
         <v>242487</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4737,13 @@
         <v>89987</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>126</v>
@@ -4764,13 +4752,13 @@
         <v>128525</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>212</v>
@@ -4779,13 +4767,13 @@
         <v>218511</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4788,13 @@
         <v>183994</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>143</v>
@@ -4815,13 +4803,13 @@
         <v>151506</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>318</v>
@@ -4830,13 +4818,13 @@
         <v>335501</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4892,13 @@
         <v>177391</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>249</v>
@@ -4919,13 +4907,13 @@
         <v>274951</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>412</v>
@@ -4934,13 +4922,13 @@
         <v>452342</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4943,13 @@
         <v>485397</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>387</v>
@@ -4970,13 +4958,13 @@
         <v>418902</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>842</v>
@@ -4985,13 +4973,13 @@
         <v>904299</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5047,13 @@
         <v>153565</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="H25" s="7">
         <v>226</v>
@@ -5074,13 +5062,13 @@
         <v>246340</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>365</v>
@@ -5089,13 +5077,13 @@
         <v>399905</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,13 +5098,13 @@
         <v>625533</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>301</v>
+        <v>87</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>531</v>
@@ -5125,13 +5113,13 @@
         <v>577513</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>1109</v>
@@ -5140,13 +5128,13 @@
         <v>1203046</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5202,13 @@
         <v>832854</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>1279</v>
@@ -5229,13 +5217,13 @@
         <v>1376577</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>2040</v>
@@ -5244,13 +5232,13 @@
         <v>2209431</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5253,13 @@
         <v>2593925</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>2019</v>
@@ -5280,13 +5268,13 @@
         <v>2181732</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>4467</v>
@@ -5295,13 +5283,13 @@
         <v>4775657</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,7 +5345,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5381,7 +5369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554972AF-C055-438F-87E9-CC29E3234C87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D661120-234E-4FDE-A6B7-7B393DC08FF7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5398,7 +5386,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5505,13 +5493,13 @@
         <v>72497</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H4" s="7">
         <v>112</v>
@@ -5520,13 +5508,13 @@
         <v>120089</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>180</v>
@@ -5535,13 +5523,13 @@
         <v>192586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5544,13 @@
         <v>221264</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>165</v>
@@ -5571,13 +5559,13 @@
         <v>168614</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>363</v>
@@ -5586,13 +5574,13 @@
         <v>389878</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5648,13 @@
         <v>109496</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>164</v>
@@ -5675,13 +5663,13 @@
         <v>184649</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>273</v>
@@ -5690,13 +5678,13 @@
         <v>294144</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>170</v>
+        <v>348</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5699,13 @@
         <v>393079</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>320</v>
@@ -5726,13 +5714,13 @@
         <v>338435</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>268</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>686</v>
@@ -5741,13 +5729,13 @@
         <v>731515</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5803,13 @@
         <v>60809</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -5830,13 +5818,13 @@
         <v>107569</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
         <v>165</v>
@@ -5845,13 +5833,13 @@
         <v>168378</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,13 +5854,13 @@
         <v>257756</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H11" s="7">
         <v>234</v>
@@ -5881,13 +5869,13 @@
         <v>228740</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M11" s="7">
         <v>502</v>
@@ -5896,13 +5884,13 @@
         <v>486496</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +5958,13 @@
         <v>106587</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>146</v>
@@ -5985,13 +5973,13 @@
         <v>166458</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M13" s="7">
         <v>253</v>
@@ -6000,13 +5988,13 @@
         <v>273045</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,13 +6009,13 @@
         <v>263377</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
         <v>212</v>
@@ -6036,13 +6024,13 @@
         <v>220825</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>459</v>
@@ -6051,13 +6039,13 @@
         <v>484202</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6113,13 @@
         <v>48532</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -6140,13 +6128,13 @@
         <v>88235</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M16" s="7">
         <v>135</v>
@@ -6155,13 +6143,13 @@
         <v>136767</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,13 +6164,13 @@
         <v>162689</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>137</v>
@@ -6191,13 +6179,13 @@
         <v>130352</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M17" s="7">
         <v>300</v>
@@ -6206,13 +6194,13 @@
         <v>293041</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6268,13 @@
         <v>62993</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -6295,13 +6283,13 @@
         <v>94553</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>418</v>
+        <v>207</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>419</v>
+        <v>310</v>
       </c>
       <c r="M19" s="7">
         <v>150</v>
@@ -6313,10 +6301,10 @@
         <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>421</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6319,13 @@
         <v>200130</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="H20" s="7">
         <v>178</v>
@@ -6346,13 +6334,13 @@
         <v>178562</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>318</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>427</v>
+        <v>216</v>
       </c>
       <c r="M20" s="7">
         <v>372</v>
@@ -6364,10 +6352,10 @@
         <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>210</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,13 +6423,13 @@
         <v>141953</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>199</v>
@@ -6450,13 +6438,13 @@
         <v>224996</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>329</v>
@@ -6465,13 +6453,13 @@
         <v>366949</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,13 +6474,13 @@
         <v>514605</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H23" s="7">
         <v>447</v>
@@ -6501,13 +6489,13 @@
         <v>466298</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="M23" s="7">
         <v>897</v>
@@ -6516,13 +6504,13 @@
         <v>980903</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,13 +6578,13 @@
         <v>206742</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>247</v>
@@ -6605,13 +6593,13 @@
         <v>293231</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>75</v>
+        <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>365</v>
+        <v>444</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>449</v>
@@ -6620,13 +6608,13 @@
         <v>499974</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>453</v>
+        <v>347</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,13 +6629,13 @@
         <v>571841</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H26" s="7">
         <v>508</v>
@@ -6656,13 +6644,13 @@
         <v>532936</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>83</v>
+        <v>451</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>374</v>
+        <v>453</v>
       </c>
       <c r="M26" s="7">
         <v>1056</v>
@@ -6671,13 +6659,13 @@
         <v>1104776</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>461</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6733,13 @@
         <v>809608</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>462</v>
+        <v>110</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="H28" s="7">
         <v>1137</v>
@@ -6760,13 +6748,13 @@
         <v>1279781</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="M28" s="7">
         <v>1934</v>
@@ -6775,13 +6763,13 @@
         <v>2089390</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,13 +6784,13 @@
         <v>2584742</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>471</v>
+        <v>118</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H29" s="7">
         <v>2201</v>
@@ -6811,13 +6799,13 @@
         <v>2264761</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="M29" s="7">
         <v>4635</v>
@@ -6826,13 +6814,13 @@
         <v>4849502</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,7 +6876,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6912,7 +6900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F674101-F3A6-4D5A-BF0A-D53CFCA32785}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72921F79-CD0E-4491-AB06-4027B98F9E20}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6929,7 +6917,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7036,13 +7024,13 @@
         <v>78082</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>482</v>
+        <v>424</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="H4" s="7">
         <v>201</v>
@@ -7051,13 +7039,13 @@
         <v>94566</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>250</v>
+        <v>475</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="M4" s="7">
         <v>307</v>
@@ -7066,13 +7054,13 @@
         <v>172647</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7087,13 +7075,13 @@
         <v>182216</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>490</v>
+        <v>432</v>
       </c>
       <c r="H5" s="7">
         <v>337</v>
@@ -7102,13 +7090,13 @@
         <v>176837</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>483</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="M5" s="7">
         <v>562</v>
@@ -7117,13 +7105,13 @@
         <v>359053</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>487</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,13 +7179,13 @@
         <v>138644</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>369</v>
+        <v>490</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H7" s="7">
         <v>311</v>
@@ -7206,13 +7194,13 @@
         <v>221664</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>279</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="M7" s="7">
         <v>431</v>
@@ -7221,13 +7209,13 @@
         <v>360308</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7242,13 +7230,13 @@
         <v>380653</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>379</v>
+        <v>499</v>
       </c>
       <c r="H8" s="7">
         <v>406</v>
@@ -7257,13 +7245,13 @@
         <v>332902</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>287</v>
       </c>
       <c r="M8" s="7">
         <v>668</v>
@@ -7272,13 +7260,13 @@
         <v>713556</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,13 +7334,13 @@
         <v>117172</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H10" s="7">
         <v>291</v>
@@ -7361,13 +7349,13 @@
         <v>175909</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M10" s="7">
         <v>447</v>
@@ -7376,13 +7364,13 @@
         <v>293081</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>516</v>
+        <v>477</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,13 +7385,13 @@
         <v>205068</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="H11" s="7">
         <v>245</v>
@@ -7412,13 +7400,13 @@
         <v>197375</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="M11" s="7">
         <v>449</v>
@@ -7427,13 +7415,13 @@
         <v>402443</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>526</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7489,13 @@
         <v>116813</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>527</v>
+        <v>36</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="H13" s="7">
         <v>349</v>
@@ -7516,13 +7504,13 @@
         <v>210829</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M13" s="7">
         <v>475</v>
@@ -7531,13 +7519,13 @@
         <v>327643</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,13 +7540,13 @@
         <v>205427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>536</v>
+        <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="H14" s="7">
         <v>250</v>
@@ -7567,13 +7555,13 @@
         <v>217727</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="M14" s="7">
         <v>416</v>
@@ -7582,13 +7570,13 @@
         <v>423153</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,13 +7644,13 @@
         <v>65572</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="H16" s="7">
         <v>280</v>
@@ -7671,13 +7659,13 @@
         <v>124853</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="M16" s="7">
         <v>383</v>
@@ -7686,13 +7674,13 @@
         <v>190425</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7707,13 +7695,13 @@
         <v>131176</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="H17" s="7">
         <v>215</v>
@@ -7722,13 +7710,13 @@
         <v>134660</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="M17" s="7">
         <v>391</v>
@@ -7737,13 +7725,13 @@
         <v>265835</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,13 +7799,13 @@
         <v>121336</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="H19" s="7">
         <v>272</v>
@@ -7826,13 +7814,13 @@
         <v>136422</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="M19" s="7">
         <v>470</v>
@@ -7841,13 +7829,13 @@
         <v>257758</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,13 +7850,13 @@
         <v>155887</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -7877,13 +7865,13 @@
         <v>139200</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="M20" s="7">
         <v>361</v>
@@ -7892,13 +7880,13 @@
         <v>295087</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,13 +7954,13 @@
         <v>254566</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>277</v>
+        <v>574</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H22" s="7">
         <v>621</v>
@@ -7981,13 +7969,13 @@
         <v>540663</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="M22" s="7">
         <v>891</v>
@@ -7996,13 +7984,13 @@
         <v>795228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,13 +8005,13 @@
         <v>373188</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>287</v>
+        <v>584</v>
       </c>
       <c r="H23" s="7">
         <v>339</v>
@@ -8032,13 +8020,13 @@
         <v>263540</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="M23" s="7">
         <v>668</v>
@@ -8047,13 +8035,13 @@
         <v>636729</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8121,13 +8109,13 @@
         <v>219902</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="H25" s="7">
         <v>449</v>
@@ -8136,13 +8124,13 @@
         <v>325494</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>417</v>
+        <v>595</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="M25" s="7">
         <v>694</v>
@@ -8151,13 +8139,13 @@
         <v>545396</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8172,13 +8160,13 @@
         <v>639526</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="H26" s="7">
         <v>613</v>
@@ -8187,13 +8175,13 @@
         <v>542940</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>425</v>
+        <v>605</v>
       </c>
       <c r="M26" s="7">
         <v>1130</v>
@@ -8202,13 +8190,13 @@
         <v>1182466</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,13 +8264,13 @@
         <v>1112086</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>54</v>
+        <v>610</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H28" s="7">
         <v>2774</v>
@@ -8291,28 +8279,28 @@
         <v>1830400</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="M28" s="7">
         <v>4098</v>
       </c>
       <c r="N28" s="7">
-        <v>2942487</v>
+        <v>2942486</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>619</v>
+        <v>445</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8327,13 +8315,13 @@
         <v>2273142</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>63</v>
+        <v>619</v>
       </c>
       <c r="H29" s="7">
         <v>2593</v>
@@ -8342,13 +8330,13 @@
         <v>2005181</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="M29" s="7">
         <v>4645</v>
@@ -8357,13 +8345,13 @@
         <v>4278322</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>628</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8405,7 +8393,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8419,7 +8407,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/POLIPATOLOGIA-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D348AFE5-325B-4BBE-9923-4F859E1F822B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8E03C4B-8F70-4675-B04B-190AE3FF18EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E21BC55-F548-4036-960D-F2B24B26F647}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3E731F92-8200-4A93-8613-697E2FA4B218}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="613">
   <si>
     <t>Población con dos o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1557 +77,1530 @@
     <t>18,35%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
   </si>
   <si>
     <t>25,84%</t>
   </si>
   <si>
-    <t>20,6%</t>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
   </si>
   <si>
     <t>32,3%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
   </si>
   <si>
     <t>67,7%</t>
   </si>
   <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
     <t>57,38%</t>
   </si>
   <si>
@@ -1637,9 +1610,6 @@
     <t>50,8%</t>
   </si>
   <si>
-    <t>43,66%</t>
-  </si>
-  <si>
     <t>55,96%</t>
   </si>
   <si>
@@ -1814,9 +1784,6 @@
     <t>49,18%</t>
   </si>
   <si>
-    <t>25,59%</t>
-  </si>
-  <si>
     <t>20,65%</t>
   </si>
   <si>
@@ -1839,9 +1806,6 @@
   </si>
   <si>
     <t>34,04%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
   </si>
   <si>
     <t>70,94%</t>
@@ -2325,7 +2289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E48CEAC-E091-427A-83EE-F8C62DADE3FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD0EFE3-2B87-45BB-B69E-FED6711845A5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3737,7 +3701,7 @@
         <v>2552</v>
       </c>
       <c r="D29" s="7">
-        <v>2628561</v>
+        <v>2628560</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>173</v>
@@ -3788,7 +3752,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3856,7 +3820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44482B24-1E2F-4A30-82B4-160E0D3CFACA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D289100-7F08-4145-93EF-4553B3796EC0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4153,7 +4117,7 @@
         <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4132,13 @@
         <v>400213</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>314</v>
@@ -4183,13 +4147,13 @@
         <v>341826</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>697</v>
@@ -4198,13 +4162,13 @@
         <v>742039</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4236,13 @@
         <v>90667</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>115</v>
@@ -4287,13 +4251,13 @@
         <v>124119</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>200</v>
@@ -4302,13 +4266,13 @@
         <v>214786</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4287,13 @@
         <v>233379</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>202</v>
@@ -4338,13 +4302,13 @@
         <v>216901</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>436</v>
@@ -4353,13 +4317,13 @@
         <v>450280</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4391,13 @@
         <v>156229</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>273</v>
@@ -4442,13 +4406,13 @@
         <v>290682</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>418</v>
@@ -4457,13 +4421,13 @@
         <v>446911</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4442,13 @@
         <v>512491</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
         <v>354</v>
@@ -4493,13 +4457,13 @@
         <v>385514</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>835</v>
@@ -4508,13 +4472,13 @@
         <v>898005</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4546,13 @@
         <v>59701</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H16" s="7">
         <v>124</v>
@@ -4597,13 +4561,13 @@
         <v>130021</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -4612,13 +4576,13 @@
         <v>189722</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4597,13 @@
         <v>152917</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="H17" s="7">
         <v>88</v>
@@ -5053,7 +5017,7 @@
         <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>226</v>
@@ -5062,10 +5026,10 @@
         <v>246340</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>293</v>
@@ -5101,10 +5065,10 @@
         <v>297</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>87</v>
+        <v>298</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>531</v>
@@ -5113,13 +5077,13 @@
         <v>577513</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>1109</v>
@@ -5369,7 +5333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D661120-234E-4FDE-A6B7-7B393DC08FF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E297A84-A99C-4A3A-BF13-845BE194F016}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5666,10 +5630,10 @@
         <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>273</v>
@@ -5717,10 +5681,10 @@
         <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>217</v>
       </c>
       <c r="M8" s="7">
         <v>686</v>
@@ -5833,13 +5797,13 @@
         <v>168378</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5818,13 @@
         <v>257756</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H11" s="7">
         <v>234</v>
@@ -5869,13 +5833,13 @@
         <v>228740</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M11" s="7">
         <v>502</v>
@@ -5884,13 +5848,13 @@
         <v>486496</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5922,13 @@
         <v>106587</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>167</v>
       </c>
       <c r="H13" s="7">
         <v>146</v>
@@ -5973,13 +5937,13 @@
         <v>166458</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M13" s="7">
         <v>253</v>
@@ -5988,13 +5952,13 @@
         <v>273045</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>382</v>
+        <v>275</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +5973,13 @@
         <v>263377</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>176</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H14" s="7">
         <v>212</v>
@@ -6024,13 +5988,13 @@
         <v>220825</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M14" s="7">
         <v>459</v>
@@ -6039,13 +6003,13 @@
         <v>484202</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>391</v>
+        <v>285</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6077,13 @@
         <v>48532</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -6128,13 +6092,13 @@
         <v>88235</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>154</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="M16" s="7">
         <v>135</v>
@@ -6143,13 +6107,13 @@
         <v>136767</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6128,13 @@
         <v>162689</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="H17" s="7">
         <v>137</v>
@@ -6179,13 +6143,13 @@
         <v>130352</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>300</v>
@@ -6194,13 +6158,13 @@
         <v>293041</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6232,13 @@
         <v>62993</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -6283,13 +6247,13 @@
         <v>94553</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>207</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>310</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>150</v>
@@ -6301,10 +6265,10 @@
         <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>203</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6283,13 @@
         <v>200130</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>178</v>
@@ -6334,13 +6298,13 @@
         <v>178562</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>318</v>
+        <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>216</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>372</v>
@@ -6352,10 +6316,10 @@
         <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>210</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6387,13 @@
         <v>141953</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>199</v>
@@ -6438,13 +6402,13 @@
         <v>224996</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>329</v>
@@ -6453,13 +6417,13 @@
         <v>366949</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6438,13 @@
         <v>514605</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="H23" s="7">
         <v>447</v>
@@ -6489,13 +6453,13 @@
         <v>466298</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="M23" s="7">
         <v>897</v>
@@ -6504,13 +6468,13 @@
         <v>980903</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,13 +6542,13 @@
         <v>206742</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>131</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H25" s="7">
         <v>247</v>
@@ -6593,13 +6557,13 @@
         <v>293231</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>209</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="M25" s="7">
         <v>449</v>
@@ -6608,13 +6572,13 @@
         <v>499974</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>347</v>
+        <v>443</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6593,13 @@
         <v>571841</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>448</v>
+        <v>141</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H26" s="7">
         <v>508</v>
@@ -6644,13 +6608,13 @@
         <v>532936</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>453</v>
+        <v>218</v>
       </c>
       <c r="M26" s="7">
         <v>1056</v>
@@ -6659,13 +6623,13 @@
         <v>1104776</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>355</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6697,13 @@
         <v>809608</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>110</v>
+        <v>452</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H28" s="7">
         <v>1137</v>
@@ -6748,13 +6712,13 @@
         <v>1279781</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M28" s="7">
         <v>1934</v>
@@ -6763,13 +6727,13 @@
         <v>2089390</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6748,13 @@
         <v>2584742</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H29" s="7">
         <v>2201</v>
@@ -6799,13 +6763,13 @@
         <v>2264761</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="M29" s="7">
         <v>4635</v>
@@ -6814,13 +6778,13 @@
         <v>4849502</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6900,7 +6864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72921F79-CD0E-4491-AB06-4027B98F9E20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A160D8DA-2B38-4A16-A00E-C79C583B0536}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6917,7 +6881,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7024,13 +6988,13 @@
         <v>78082</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="H4" s="7">
         <v>201</v>
@@ -7039,13 +7003,13 @@
         <v>94566</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="M4" s="7">
         <v>307</v>
@@ -7054,13 +7018,13 @@
         <v>172647</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>478</v>
+        <v>40</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>480</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,13 +7039,13 @@
         <v>182216</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="H5" s="7">
         <v>337</v>
@@ -7090,13 +7054,13 @@
         <v>176837</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>483</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M5" s="7">
         <v>562</v>
@@ -7105,13 +7069,13 @@
         <v>359053</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>486</v>
+        <v>48</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>487</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,13 +7143,13 @@
         <v>138644</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H7" s="7">
         <v>311</v>
@@ -7194,13 +7158,13 @@
         <v>221664</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>492</v>
+        <v>346</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>279</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="M7" s="7">
         <v>431</v>
@@ -7209,13 +7173,13 @@
         <v>360308</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,13 +7194,13 @@
         <v>380653</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H8" s="7">
         <v>406</v>
@@ -7245,13 +7209,13 @@
         <v>332902</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>500</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>287</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>668</v>
@@ -7260,13 +7224,13 @@
         <v>713556</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7298,13 @@
         <v>117172</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>505</v>
+        <v>211</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="H10" s="7">
         <v>291</v>
@@ -7349,13 +7313,13 @@
         <v>175909</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="M10" s="7">
         <v>447</v>
@@ -7364,13 +7328,13 @@
         <v>293081</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7349,13 @@
         <v>205068</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>513</v>
+        <v>219</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="H11" s="7">
         <v>245</v>
@@ -7400,13 +7364,13 @@
         <v>197375</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="M11" s="7">
         <v>449</v>
@@ -7415,13 +7379,13 @@
         <v>402443</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,13 +7453,13 @@
         <v>116813</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>511</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="H13" s="7">
         <v>349</v>
@@ -7504,13 +7468,13 @@
         <v>210829</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>525</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>475</v>
@@ -7519,13 +7483,13 @@
         <v>327643</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,13 +7504,13 @@
         <v>205427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>519</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="H14" s="7">
         <v>250</v>
@@ -7555,13 +7519,13 @@
         <v>217727</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>532</v>
+        <v>276</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="M14" s="7">
         <v>416</v>
@@ -7570,13 +7534,13 @@
         <v>423153</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,13 +7608,13 @@
         <v>65572</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="H16" s="7">
         <v>280</v>
@@ -7659,13 +7623,13 @@
         <v>124853</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="M16" s="7">
         <v>383</v>
@@ -7674,13 +7638,13 @@
         <v>190425</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,13 +7659,13 @@
         <v>131176</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="H17" s="7">
         <v>215</v>
@@ -7710,13 +7674,13 @@
         <v>134660</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="M17" s="7">
         <v>391</v>
@@ -7725,13 +7689,13 @@
         <v>265835</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7763,13 @@
         <v>121336</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="H19" s="7">
         <v>272</v>
@@ -7814,13 +7778,13 @@
         <v>136422</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="M19" s="7">
         <v>470</v>
@@ -7829,13 +7793,13 @@
         <v>257758</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,13 +7814,13 @@
         <v>155887</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -7865,13 +7829,13 @@
         <v>139200</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="M20" s="7">
         <v>361</v>
@@ -7880,13 +7844,13 @@
         <v>295087</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +7918,13 @@
         <v>254566</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H22" s="7">
         <v>621</v>
@@ -7969,13 +7933,13 @@
         <v>540663</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="M22" s="7">
         <v>891</v>
@@ -7984,13 +7948,13 @@
         <v>795228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +7969,13 @@
         <v>373188</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H23" s="7">
         <v>339</v>
@@ -8020,13 +7984,13 @@
         <v>263540</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="M23" s="7">
         <v>668</v>
@@ -8035,13 +7999,13 @@
         <v>636729</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8109,13 +8073,13 @@
         <v>219902</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>591</v>
+        <v>344</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="H25" s="7">
         <v>449</v>
@@ -8124,13 +8088,13 @@
         <v>325494</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="M25" s="7">
         <v>694</v>
@@ -8139,13 +8103,13 @@
         <v>545396</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,13 +8124,13 @@
         <v>639526</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>600</v>
+        <v>351</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="H26" s="7">
         <v>613</v>
@@ -8175,13 +8139,13 @@
         <v>542940</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="M26" s="7">
         <v>1130</v>
@@ -8190,13 +8154,13 @@
         <v>1182466</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8264,13 +8228,13 @@
         <v>1112086</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="H28" s="7">
         <v>2774</v>
@@ -8279,13 +8243,13 @@
         <v>1830400</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="M28" s="7">
         <v>4098</v>
@@ -8294,13 +8258,13 @@
         <v>2942486</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8315,13 +8279,13 @@
         <v>2273142</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="H29" s="7">
         <v>2593</v>
@@ -8330,13 +8294,13 @@
         <v>2005181</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="M29" s="7">
         <v>4645</v>
@@ -8345,13 +8309,13 @@
         <v>4278322</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/POLIPATOLOGIA-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8E03C4B-8F70-4675-B04B-190AE3FF18EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98C026BE-427B-41FD-8B0C-787F084812F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3E731F92-8200-4A93-8613-697E2FA4B218}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{24502192-A63A-4DB3-98B5-CE9FC8CED52B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="629">
   <si>
     <t>Población con dos o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1807 +77,1855 @@
     <t>18,35%</t>
   </si>
   <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
   </si>
   <si>
     <t>25,84%</t>
   </si>
   <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
   </si>
   <si>
     <t>22,01%</t>
   </si>
   <si>
-    <t>18,78%</t>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
   </si>
   <si>
     <t>25,71%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
   </si>
   <si>
     <t>74,29%</t>
   </si>
   <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
   </si>
   <si>
     <t>32,47%</t>
   </si>
   <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
   </si>
   <si>
     <t>67,53%</t>
   </si>
   <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
   </si>
   <si>
     <t>36,36%</t>
   </si>
   <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
   </si>
   <si>
     <t>63,64%</t>
   </si>
   <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
   </si>
   <si>
     <t>25,59%</t>
   </si>
   <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
   </si>
   <si>
     <t>74,41%</t>
   </si>
   <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
   </si>
   <si>
     <t>62,52%</t>
   </si>
   <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
+    <t>59,51%</t>
   </si>
   <si>
     <t>68,44%</t>
   </si>
   <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
   </si>
   <si>
     <t>32,85%</t>
   </si>
   <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
+    <t>34,72%</t>
   </si>
   <si>
     <t>47,72%</t>
   </si>
   <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
   </si>
   <si>
     <t>40,75%</t>
   </si>
   <si>
-    <t>44,2%</t>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
   </si>
   <si>
     <t>67,15%</t>
   </si>
   <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
+    <t>65,28%</t>
   </si>
   <si>
     <t>52,28%</t>
   </si>
   <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
   </si>
   <si>
     <t>59,25%</t>
   </si>
   <si>
-    <t>55,8%</t>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
   </si>
 </sst>
 </file>
@@ -2289,7 +2337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD0EFE3-2B87-45BB-B69E-FED6711845A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17257C1D-53FE-4CD4-A33D-17CEBC37CF01}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3656,10 +3704,10 @@
         <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1101</v>
@@ -3668,13 +3716,13 @@
         <v>1132361</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1763</v>
@@ -3683,13 +3731,13 @@
         <v>1780344</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,16 +3749,16 @@
         <v>2552</v>
       </c>
       <c r="D29" s="7">
-        <v>2628560</v>
+        <v>2628561</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="H29" s="7">
         <v>2196</v>
@@ -3719,28 +3767,28 @@
         <v>2246837</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>4748</v>
       </c>
       <c r="N29" s="7">
-        <v>4875397</v>
+        <v>4875396</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,7 +3800,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3782,7 +3830,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3796,7 +3844,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3820,7 +3868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D289100-7F08-4145-93EF-4553B3796EC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB04388-B6C7-4DA7-99FA-9446F5481D37}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3837,7 +3885,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3942,39 +3990,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,39 +4035,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,39 +4080,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4129,13 @@
         <v>105314</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>166</v>
@@ -4096,13 +4144,13 @@
         <v>181939</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>255</v>
@@ -4111,13 +4159,13 @@
         <v>287253</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4180,13 @@
         <v>400213</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>314</v>
@@ -4147,13 +4195,13 @@
         <v>341826</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>697</v>
@@ -4162,13 +4210,13 @@
         <v>742039</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4284,13 @@
         <v>90667</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>115</v>
@@ -4251,13 +4299,13 @@
         <v>124119</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>200</v>
@@ -4266,13 +4314,13 @@
         <v>214786</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4335,13 @@
         <v>233379</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>202</v>
@@ -4302,13 +4350,13 @@
         <v>216901</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>436</v>
@@ -4317,13 +4365,13 @@
         <v>450280</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4439,13 @@
         <v>156229</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>273</v>
@@ -4406,13 +4454,13 @@
         <v>290682</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>418</v>
@@ -4421,13 +4469,13 @@
         <v>446911</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4490,13 @@
         <v>512491</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H14" s="7">
         <v>354</v>
@@ -4457,13 +4505,13 @@
         <v>385514</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>835</v>
@@ -4472,13 +4520,13 @@
         <v>898005</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,10 +4597,10 @@
         <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>124</v>
@@ -4561,13 +4609,13 @@
         <v>130021</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -4576,13 +4624,13 @@
         <v>189722</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4645,13 @@
         <v>152917</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>88</v>
@@ -4612,13 +4660,13 @@
         <v>89570</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>230</v>
@@ -4627,13 +4675,13 @@
         <v>242487</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4749,13 @@
         <v>89987</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>126</v>
@@ -4716,13 +4764,13 @@
         <v>128525</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>212</v>
@@ -4731,13 +4779,13 @@
         <v>218511</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4800,13 @@
         <v>183994</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>143</v>
@@ -4767,13 +4815,13 @@
         <v>151506</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>318</v>
@@ -4782,13 +4830,13 @@
         <v>335501</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4904,13 @@
         <v>177391</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>249</v>
@@ -4871,13 +4919,13 @@
         <v>274951</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>412</v>
@@ -4886,13 +4934,13 @@
         <v>452342</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4955,13 @@
         <v>485397</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>387</v>
@@ -4922,13 +4970,13 @@
         <v>418902</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>842</v>
@@ -4937,13 +4985,13 @@
         <v>904299</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +5059,13 @@
         <v>153565</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>226</v>
@@ -5026,13 +5074,13 @@
         <v>246340</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>295</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>365</v>
@@ -5041,13 +5089,13 @@
         <v>399905</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5110,13 @@
         <v>625533</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H26" s="7">
         <v>531</v>
@@ -5077,13 +5125,13 @@
         <v>577513</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>1109</v>
@@ -5092,13 +5140,13 @@
         <v>1203046</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5214,13 @@
         <v>832854</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H28" s="7">
         <v>1279</v>
@@ -5181,13 +5229,13 @@
         <v>1376577</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M28" s="7">
         <v>2040</v>
@@ -5196,13 +5244,13 @@
         <v>2209431</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5265,13 @@
         <v>2593925</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H29" s="7">
         <v>2019</v>
@@ -5232,13 +5280,13 @@
         <v>2181732</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M29" s="7">
         <v>4467</v>
@@ -5247,13 +5295,13 @@
         <v>4775657</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,7 +5357,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5333,7 +5381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E297A84-A99C-4A3A-BF13-845BE194F016}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2761D2-2537-492E-A76D-91D8321CD698}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5350,7 +5398,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5457,13 +5505,13 @@
         <v>72497</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H4" s="7">
         <v>112</v>
@@ -5472,13 +5520,13 @@
         <v>120089</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M4" s="7">
         <v>180</v>
@@ -5487,13 +5535,13 @@
         <v>192586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5556,13 @@
         <v>221264</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>165</v>
@@ -5523,13 +5571,13 @@
         <v>168614</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>363</v>
@@ -5538,13 +5586,13 @@
         <v>389878</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5660,13 @@
         <v>109496</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H7" s="7">
         <v>164</v>
@@ -5627,13 +5675,13 @@
         <v>184649</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>207</v>
+        <v>350</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="M7" s="7">
         <v>273</v>
@@ -5642,13 +5690,13 @@
         <v>294144</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>348</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5711,13 @@
         <v>393079</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>320</v>
@@ -5678,13 +5726,13 @@
         <v>338435</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>217</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>686</v>
@@ -5693,13 +5741,13 @@
         <v>731515</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5815,13 @@
         <v>60809</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -5782,13 +5830,13 @@
         <v>107569</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>165</v>
@@ -5797,13 +5845,13 @@
         <v>168378</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>19</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5866,13 @@
         <v>257756</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="H11" s="7">
         <v>234</v>
@@ -5833,13 +5881,13 @@
         <v>228740</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>502</v>
@@ -5848,13 +5896,13 @@
         <v>486496</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>28</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,13 +5970,13 @@
         <v>106587</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>167</v>
+        <v>382</v>
       </c>
       <c r="H13" s="7">
         <v>146</v>
@@ -5937,13 +5985,13 @@
         <v>166458</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="M13" s="7">
         <v>253</v>
@@ -5952,13 +6000,13 @@
         <v>273045</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>386</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +6021,13 @@
         <v>263377</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>390</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="H14" s="7">
         <v>212</v>
@@ -5988,13 +6036,13 @@
         <v>220825</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="M14" s="7">
         <v>459</v>
@@ -6003,13 +6051,13 @@
         <v>484202</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>395</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6125,13 @@
         <v>48532</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -6092,13 +6140,13 @@
         <v>88235</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>154</v>
+        <v>401</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="M16" s="7">
         <v>135</v>
@@ -6107,13 +6155,13 @@
         <v>136767</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6176,13 @@
         <v>162689</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>137</v>
@@ -6143,13 +6191,13 @@
         <v>130352</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>162</v>
+        <v>410</v>
       </c>
       <c r="M17" s="7">
         <v>300</v>
@@ -6158,13 +6206,13 @@
         <v>293041</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6280,13 @@
         <v>62993</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -6247,13 +6295,13 @@
         <v>94553</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="M19" s="7">
         <v>150</v>
@@ -6265,10 +6313,10 @@
         <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6331,13 @@
         <v>200130</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>178</v>
@@ -6298,13 +6346,13 @@
         <v>178562</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>372</v>
@@ -6316,10 +6364,10 @@
         <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6435,13 @@
         <v>141953</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>199</v>
@@ -6402,13 +6450,13 @@
         <v>224996</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>329</v>
@@ -6417,13 +6465,13 @@
         <v>366949</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6486,13 @@
         <v>514605</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="H23" s="7">
         <v>447</v>
@@ -6453,13 +6501,13 @@
         <v>466298</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="M23" s="7">
         <v>897</v>
@@ -6468,13 +6516,13 @@
         <v>980903</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,13 +6590,13 @@
         <v>206742</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>131</v>
+        <v>448</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="H25" s="7">
         <v>247</v>
@@ -6557,13 +6605,13 @@
         <v>293231</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>440</v>
+        <v>75</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>209</v>
+        <v>365</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="M25" s="7">
         <v>449</v>
@@ -6572,13 +6620,13 @@
         <v>499974</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6641,13 @@
         <v>571841</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>141</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>508</v>
@@ -6608,13 +6656,13 @@
         <v>532936</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>447</v>
+        <v>83</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>218</v>
+        <v>374</v>
       </c>
       <c r="M26" s="7">
         <v>1056</v>
@@ -6623,13 +6671,13 @@
         <v>1104776</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6745,13 @@
         <v>809608</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="H28" s="7">
         <v>1137</v>
@@ -6712,13 +6760,13 @@
         <v>1279781</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="M28" s="7">
         <v>1934</v>
@@ -6727,13 +6775,13 @@
         <v>2089390</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6796,13 @@
         <v>2584742</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="H29" s="7">
         <v>2201</v>
@@ -6763,13 +6811,13 @@
         <v>2264761</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="M29" s="7">
         <v>4635</v>
@@ -6778,13 +6826,13 @@
         <v>4849502</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,7 +6888,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6864,7 +6912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A160D8DA-2B38-4A16-A00E-C79C583B0536}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF048EB-D477-40EC-9CA2-232B0A5304F6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6881,7 +6929,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6988,13 +7036,13 @@
         <v>78082</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="H4" s="7">
         <v>201</v>
@@ -7003,13 +7051,13 @@
         <v>94566</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="M4" s="7">
         <v>307</v>
@@ -7018,13 +7066,13 @@
         <v>172647</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>40</v>
+        <v>486</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7039,13 +7087,13 @@
         <v>182216</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="H5" s="7">
         <v>337</v>
@@ -7054,13 +7102,13 @@
         <v>176837</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="M5" s="7">
         <v>562</v>
@@ -7069,13 +7117,13 @@
         <v>359053</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>48</v>
+        <v>493</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7191,13 @@
         <v>138644</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>484</v>
+        <v>369</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="H7" s="7">
         <v>311</v>
@@ -7158,13 +7206,13 @@
         <v>221664</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>497</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="M7" s="7">
         <v>431</v>
@@ -7173,13 +7221,13 @@
         <v>360308</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,13 +7242,13 @@
         <v>380653</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>492</v>
+        <v>379</v>
       </c>
       <c r="H8" s="7">
         <v>406</v>
@@ -7209,10 +7257,10 @@
         <v>332902</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>504</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>46</v>
@@ -7224,13 +7272,13 @@
         <v>713556</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,13 +7346,13 @@
         <v>117172</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>211</v>
+        <v>509</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="H10" s="7">
         <v>291</v>
@@ -7313,13 +7361,13 @@
         <v>175909</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="M10" s="7">
         <v>447</v>
@@ -7328,13 +7376,13 @@
         <v>293081</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>475</v>
+        <v>516</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,13 +7397,13 @@
         <v>205068</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>219</v>
+        <v>518</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="H11" s="7">
         <v>245</v>
@@ -7364,13 +7412,13 @@
         <v>197375</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="M11" s="7">
         <v>449</v>
@@ -7379,13 +7427,13 @@
         <v>402443</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>480</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7453,13 +7501,13 @@
         <v>116813</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="H13" s="7">
         <v>349</v>
@@ -7468,13 +7516,13 @@
         <v>210829</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>532</v>
       </c>
       <c r="M13" s="7">
         <v>475</v>
@@ -7483,13 +7531,13 @@
         <v>327643</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7504,13 +7552,13 @@
         <v>205427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="H14" s="7">
         <v>250</v>
@@ -7519,13 +7567,13 @@
         <v>217727</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>540</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="M14" s="7">
         <v>416</v>
@@ -7534,13 +7582,13 @@
         <v>423153</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,13 +7656,13 @@
         <v>65572</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="H16" s="7">
         <v>280</v>
@@ -7623,13 +7671,13 @@
         <v>124853</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="M16" s="7">
         <v>383</v>
@@ -7638,13 +7686,13 @@
         <v>190425</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,13 +7707,13 @@
         <v>131176</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="H17" s="7">
         <v>215</v>
@@ -7674,13 +7722,13 @@
         <v>134660</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="M17" s="7">
         <v>391</v>
@@ -7689,13 +7737,13 @@
         <v>265835</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,13 +7811,13 @@
         <v>121336</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="H19" s="7">
         <v>272</v>
@@ -7778,13 +7826,13 @@
         <v>136422</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="M19" s="7">
         <v>470</v>
@@ -7793,13 +7841,13 @@
         <v>257758</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7814,13 +7862,13 @@
         <v>155887</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -7829,13 +7877,13 @@
         <v>139200</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="M20" s="7">
         <v>361</v>
@@ -7844,13 +7892,13 @@
         <v>295087</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,13 +7966,13 @@
         <v>254566</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>564</v>
+        <v>277</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="H22" s="7">
         <v>621</v>
@@ -7933,13 +7981,13 @@
         <v>540663</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="M22" s="7">
         <v>891</v>
@@ -7948,13 +7996,13 @@
         <v>795228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7969,13 +8017,13 @@
         <v>373188</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>574</v>
+        <v>287</v>
       </c>
       <c r="H23" s="7">
         <v>339</v>
@@ -7984,13 +8032,13 @@
         <v>263540</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="M23" s="7">
         <v>668</v>
@@ -7999,13 +8047,13 @@
         <v>636729</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8073,13 +8121,13 @@
         <v>219902</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>344</v>
+        <v>597</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="H25" s="7">
         <v>449</v>
@@ -8088,13 +8136,13 @@
         <v>325494</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>584</v>
+        <v>417</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="M25" s="7">
         <v>694</v>
@@ -8103,13 +8151,13 @@
         <v>545396</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8124,13 +8172,13 @@
         <v>639526</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>351</v>
+        <v>605</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="H26" s="7">
         <v>613</v>
@@ -8139,13 +8187,13 @@
         <v>542940</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>593</v>
+        <v>425</v>
       </c>
       <c r="M26" s="7">
         <v>1130</v>
@@ -8154,13 +8202,13 @@
         <v>1182466</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8228,13 +8276,13 @@
         <v>1112086</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="H28" s="7">
         <v>2774</v>
@@ -8243,28 +8291,28 @@
         <v>1830400</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="M28" s="7">
         <v>4098</v>
       </c>
       <c r="N28" s="7">
-        <v>2942486</v>
+        <v>2942487</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>441</v>
+        <v>619</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8279,13 +8327,13 @@
         <v>2273142</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>607</v>
+        <v>63</v>
       </c>
       <c r="H29" s="7">
         <v>2593</v>
@@ -8294,13 +8342,13 @@
         <v>2005181</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="M29" s="7">
         <v>4645</v>
@@ -8309,13 +8357,13 @@
         <v>4278322</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>448</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8357,7 +8405,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8371,7 +8419,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
